--- a/biology/Botanique/Cheiridopsis/Cheiridopsis.xlsx
+++ b/biology/Botanique/Cheiridopsis/Cheiridopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheiridopsis N.E.Br. est un genre de plantes de la famille des Aizoaceae.
 Cheiridopsis N.E.Br., in Gard. Chron. ser. 3. 78: 433 (1925), in clave ; et in Gard. Chron., ser. 3, 79: 406 (1926) [descr. ampl.]
@@ -513,7 +525,9 @@
           <t>Liste des sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cheiridopsis subgen. Cheiridopsis
 Cheiridopsis subgen. Aequifoliae H.E.K.Hartmann
@@ -545,9 +559,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (9 juillet 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (9 juillet 2014) :
 Cheiridopsis acuminata
 Cheiridopsis amabilis
 Cheiridopsis aspera
@@ -581,11 +597,11 @@
 Cheiridopsis umdausensis
 Cheiridopsis velox
 Cheiridopsis verrucosa
-Selon GRIN            (9 juillet 2014)[2] :
+Selon GRIN            (9 juillet 2014) :
 Cheiridopsis caroli-schmidtii (Dinter &amp; A. Berger) N. E. Br.
-Selon ITIS      (9 juillet 2014)[3] :
+Selon ITIS      (9 juillet 2014) :
 Cheiridopsis inaequalis L. Bolus
-Selon The Plant List            (9 juillet 2014)[4] :
+Selon The Plant List            (9 juillet 2014) :
 Cheiridopsis acuminata L.Bolus
 Cheiridopsis albirosa L. Bolus
 Cheiridopsis amabilis S.A.Hammer
@@ -621,7 +637,7 @@
 Cheiridopsis umdausensis L.Bolus
 Cheiridopsis velox S.A.Hammer
 Cheiridopsis verrucosa L.Bolus
-Selon Tropicos                                           (9 juillet 2014)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 juillet 2014) (Attention liste brute contenant possiblement des synonymes) :
 Cheiridopsis acuminata L. Bolus
 Cheiridopsis alata L. Bolus
 Cheiridopsis albiflora L. Bolus
